--- a/data/pca/factorExposure/factorExposure_2017-10-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02332608617834768</v>
+        <v>0.01507402589586126</v>
       </c>
       <c r="C2">
-        <v>2.971877213255941e-05</v>
+        <v>0.03820237700782239</v>
       </c>
       <c r="D2">
-        <v>0.01723179935809195</v>
+        <v>-0.02853977657442589</v>
       </c>
       <c r="E2">
-        <v>0.01212709506846656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03445064158805477</v>
+      </c>
+      <c r="F2">
+        <v>-0.02202766322763621</v>
+      </c>
+      <c r="G2">
+        <v>-0.01762460345868556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01333927722026047</v>
+        <v>0.05344759060633801</v>
       </c>
       <c r="C3">
-        <v>-0.05725971344524834</v>
+        <v>0.07694687862642759</v>
       </c>
       <c r="D3">
-        <v>0.01809041009505056</v>
+        <v>-0.01526247000480391</v>
       </c>
       <c r="E3">
-        <v>0.003293783893612114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.0978046774248827</v>
+      </c>
+      <c r="F3">
+        <v>-0.0387713000484731</v>
+      </c>
+      <c r="G3">
+        <v>-0.07373123294701904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02251792531955826</v>
+        <v>0.05520350684268496</v>
       </c>
       <c r="C4">
-        <v>-0.01908537186836276</v>
+        <v>0.06520708291029249</v>
       </c>
       <c r="D4">
-        <v>0.06276536120960036</v>
+        <v>-0.02292178693528345</v>
       </c>
       <c r="E4">
-        <v>-0.007261781334054213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009038798663853381</v>
+      </c>
+      <c r="F4">
+        <v>-0.01260767314560911</v>
+      </c>
+      <c r="G4">
+        <v>-0.04605970548505647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01550360775910959</v>
+        <v>0.03214648194597983</v>
       </c>
       <c r="C6">
-        <v>-0.02771809380982185</v>
+        <v>0.05343708308851088</v>
       </c>
       <c r="D6">
-        <v>0.08268518245155732</v>
+        <v>-0.01637681977116263</v>
       </c>
       <c r="E6">
-        <v>0.009674628189425816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.008891959020416812</v>
+      </c>
+      <c r="F6">
+        <v>-0.01458057521942443</v>
+      </c>
+      <c r="G6">
+        <v>-0.0248005015822141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01052780352172661</v>
+        <v>0.01896466452265535</v>
       </c>
       <c r="C7">
-        <v>-0.007878532474962863</v>
+        <v>0.03584140016829194</v>
       </c>
       <c r="D7">
-        <v>0.04214736074731957</v>
+        <v>-0.01266528371347216</v>
       </c>
       <c r="E7">
-        <v>-0.06403002857147698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01317783515025901</v>
+      </c>
+      <c r="F7">
+        <v>-0.004859619094783612</v>
+      </c>
+      <c r="G7">
+        <v>-0.07580610992046477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-6.693564259585586e-05</v>
+        <v>-0.001500115216133657</v>
       </c>
       <c r="C8">
-        <v>0.009261618882261067</v>
+        <v>0.01579387237408549</v>
       </c>
       <c r="D8">
-        <v>0.01777415013920447</v>
+        <v>-0.003796190875273389</v>
       </c>
       <c r="E8">
-        <v>-0.002927195627060135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0180674160342346</v>
+      </c>
+      <c r="F8">
+        <v>-0.01264212103235478</v>
+      </c>
+      <c r="G8">
+        <v>-0.02534419182330601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01476238012764368</v>
+        <v>0.02816711605360341</v>
       </c>
       <c r="C9">
-        <v>-0.01696036770623201</v>
+        <v>0.04349772521869893</v>
       </c>
       <c r="D9">
-        <v>0.04606150322018005</v>
+        <v>-0.0159149409126146</v>
       </c>
       <c r="E9">
-        <v>0.001813353298603114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0124251042275002</v>
+      </c>
+      <c r="F9">
+        <v>-0.01618782688290239</v>
+      </c>
+      <c r="G9">
+        <v>-0.03653565706354099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007926551008274278</v>
+        <v>0.08875683310362645</v>
       </c>
       <c r="C10">
-        <v>-0.1367037041854711</v>
+        <v>-0.1845072519541032</v>
       </c>
       <c r="D10">
-        <v>-0.1343361752478238</v>
+        <v>0.01868223065963136</v>
       </c>
       <c r="E10">
-        <v>-0.02933188986783889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01786263075287153</v>
+      </c>
+      <c r="F10">
+        <v>0.01454843489554523</v>
+      </c>
+      <c r="G10">
+        <v>-0.04061581214182075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0001893689692104255</v>
+        <v>0.03562077905743119</v>
       </c>
       <c r="C11">
-        <v>-0.007283041730028058</v>
+        <v>0.05364554236354609</v>
       </c>
       <c r="D11">
-        <v>0.04430389946901116</v>
+        <v>-0.001736890591971745</v>
       </c>
       <c r="E11">
-        <v>0.01529515224483811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003609673351064996</v>
+      </c>
+      <c r="F11">
+        <v>-0.02120608292189784</v>
+      </c>
+      <c r="G11">
+        <v>-0.0190934335858404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005615965743013461</v>
+        <v>0.03287428367706684</v>
       </c>
       <c r="C12">
-        <v>-0.01637724489135618</v>
+        <v>0.04532910248866131</v>
       </c>
       <c r="D12">
-        <v>0.04644237210894089</v>
+        <v>-0.005775346487610212</v>
       </c>
       <c r="E12">
-        <v>0.00858580567118849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.005784399608770376</v>
+      </c>
+      <c r="F12">
+        <v>-0.005668309421646467</v>
+      </c>
+      <c r="G12">
+        <v>-0.02257930142271486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02129920123219187</v>
+        <v>0.01236859526158897</v>
       </c>
       <c r="C13">
-        <v>-0.01493281984471247</v>
+        <v>0.0314419194461838</v>
       </c>
       <c r="D13">
-        <v>0.01136728273277806</v>
+        <v>-0.02487657083649689</v>
       </c>
       <c r="E13">
-        <v>0.008225647583102352</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02668145440811426</v>
+      </c>
+      <c r="F13">
+        <v>-0.009067448486588919</v>
+      </c>
+      <c r="G13">
+        <v>-0.0314349182971113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006982219680115922</v>
+        <v>0.008557543833901301</v>
       </c>
       <c r="C14">
-        <v>-0.01333292991701602</v>
+        <v>0.026538643646209</v>
       </c>
       <c r="D14">
-        <v>0.01305889022144816</v>
+        <v>-0.008469315913919421</v>
       </c>
       <c r="E14">
-        <v>-0.01128169267864381</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005529357070047924</v>
+      </c>
+      <c r="F14">
+        <v>0.002463890837031817</v>
+      </c>
+      <c r="G14">
+        <v>-0.03788580750097378</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0007518254743953709</v>
+        <v>0.03231565202026927</v>
       </c>
       <c r="C16">
-        <v>-0.01343203037115202</v>
+        <v>0.04414882826967091</v>
       </c>
       <c r="D16">
-        <v>0.04996101328905209</v>
+        <v>-0.001344872522147308</v>
       </c>
       <c r="E16">
-        <v>0.01065156916761888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.004118552998317108</v>
+      </c>
+      <c r="F16">
+        <v>-0.006222695122337001</v>
+      </c>
+      <c r="G16">
+        <v>-0.0220996981987828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01228654828252998</v>
+        <v>0.02941067738406189</v>
       </c>
       <c r="C19">
-        <v>-0.02031311978313002</v>
+        <v>0.05324525083560315</v>
       </c>
       <c r="D19">
-        <v>0.02913100229262477</v>
+        <v>-0.0158413995514976</v>
       </c>
       <c r="E19">
-        <v>0.001125497439139383</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0504178824056097</v>
+      </c>
+      <c r="F19">
+        <v>-0.02729173029432197</v>
+      </c>
+      <c r="G19">
+        <v>-0.04199866495846168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01006098868109387</v>
+        <v>0.0121651918896537</v>
       </c>
       <c r="C20">
-        <v>-0.003262242465254814</v>
+        <v>0.03516204916977254</v>
       </c>
       <c r="D20">
-        <v>0.01366729489042754</v>
+        <v>-0.013268424752529</v>
       </c>
       <c r="E20">
-        <v>-0.001802071182125298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02346131468034138</v>
+      </c>
+      <c r="F20">
+        <v>0.001220096415876993</v>
+      </c>
+      <c r="G20">
+        <v>-0.03560049307773788</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01346763444886628</v>
+        <v>0.01461192244667193</v>
       </c>
       <c r="C21">
-        <v>-0.03325714418186873</v>
+        <v>0.03391496317827466</v>
       </c>
       <c r="D21">
-        <v>0.01366263892034121</v>
+        <v>-0.01625469113599779</v>
       </c>
       <c r="E21">
-        <v>-0.02006926224237294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0340544997981301</v>
+      </c>
+      <c r="F21">
+        <v>-0.007412775903639299</v>
+      </c>
+      <c r="G21">
+        <v>-0.05835511007032605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004713655322718431</v>
+        <v>0.02680733117795914</v>
       </c>
       <c r="C24">
-        <v>-0.008514373153153168</v>
+        <v>0.04681233768366422</v>
       </c>
       <c r="D24">
-        <v>0.04546610852181289</v>
+        <v>-0.006542729820440176</v>
       </c>
       <c r="E24">
-        <v>0.0108160920434065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001778619777156371</v>
+      </c>
+      <c r="F24">
+        <v>-0.01835595921621045</v>
+      </c>
+      <c r="G24">
+        <v>-0.02144457664167137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01095198766721306</v>
+        <v>0.04358998545229647</v>
       </c>
       <c r="C25">
-        <v>-0.02422454517551578</v>
+        <v>0.05406598333173881</v>
       </c>
       <c r="D25">
-        <v>0.04312411018097096</v>
+        <v>-0.01050533559976159</v>
       </c>
       <c r="E25">
-        <v>0.009659757010258804</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008959791669792161</v>
+      </c>
+      <c r="F25">
+        <v>-0.01328720063135511</v>
+      </c>
+      <c r="G25">
+        <v>-0.0267559614769179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02278888145893614</v>
+        <v>0.009575691874950464</v>
       </c>
       <c r="C26">
-        <v>-0.007661494555838063</v>
+        <v>0.009596183898822174</v>
       </c>
       <c r="D26">
-        <v>-0.003736386842469313</v>
+        <v>-0.0237644751327274</v>
       </c>
       <c r="E26">
-        <v>-0.008185435542389992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009832436032082109</v>
+      </c>
+      <c r="F26">
+        <v>-8.170229341847972e-06</v>
+      </c>
+      <c r="G26">
+        <v>-0.02802040544103158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02452318552131508</v>
+        <v>0.1142569739087054</v>
       </c>
       <c r="C28">
-        <v>-0.2025040974590601</v>
+        <v>-0.2279134107193257</v>
       </c>
       <c r="D28">
-        <v>-0.1946989287672742</v>
+        <v>0.009917098718039174</v>
       </c>
       <c r="E28">
-        <v>-0.04361866586243601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008909076546436431</v>
+      </c>
+      <c r="F28">
+        <v>0.006602519273693824</v>
+      </c>
+      <c r="G28">
+        <v>-0.05764871798469991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007198125457166208</v>
+        <v>0.01358864116287774</v>
       </c>
       <c r="C29">
-        <v>-0.0184912394585025</v>
+        <v>0.02058832520330955</v>
       </c>
       <c r="D29">
-        <v>0.01119655834877865</v>
+        <v>-0.007152608231956738</v>
       </c>
       <c r="E29">
-        <v>-0.005732224896097474</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.005860072512220511</v>
+      </c>
+      <c r="F29">
+        <v>0.01199691537280311</v>
+      </c>
+      <c r="G29">
+        <v>-0.02794182941007375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02412534655972942</v>
+        <v>0.04156099882062426</v>
       </c>
       <c r="C30">
-        <v>-0.01417420384391113</v>
+        <v>0.07094171382334499</v>
       </c>
       <c r="D30">
-        <v>0.05996390431910163</v>
+        <v>-0.02733196685979934</v>
       </c>
       <c r="E30">
-        <v>0.06827833424677235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02958161613151973</v>
+      </c>
+      <c r="F30">
+        <v>-0.04033449362411985</v>
+      </c>
+      <c r="G30">
+        <v>-0.003004910224304595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.006568830565722253</v>
+        <v>0.04542884160575399</v>
       </c>
       <c r="C31">
-        <v>-0.04665948853647728</v>
+        <v>0.03161691665340564</v>
       </c>
       <c r="D31">
-        <v>0.03427702129889137</v>
+        <v>-0.002972501447375347</v>
       </c>
       <c r="E31">
-        <v>-0.001874121668613925</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01035546156533151</v>
+      </c>
+      <c r="F31">
+        <v>0.03898858010283041</v>
+      </c>
+      <c r="G31">
+        <v>-0.02664399428960674</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007600633609484105</v>
+        <v>0.006374375946203058</v>
       </c>
       <c r="C32">
-        <v>-0.009326227043056702</v>
+        <v>0.03248751189872767</v>
       </c>
       <c r="D32">
-        <v>0.008953522407915806</v>
+        <v>0.004621844134443059</v>
       </c>
       <c r="E32">
-        <v>-0.02295271348313628</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02070793468444185</v>
+      </c>
+      <c r="F32">
+        <v>-0.06730916605522744</v>
+      </c>
+      <c r="G32">
+        <v>-0.04924960439306741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01210301124227988</v>
+        <v>0.02905732223926457</v>
       </c>
       <c r="C33">
-        <v>-0.02499233275761252</v>
+        <v>0.04923511126236605</v>
       </c>
       <c r="D33">
-        <v>0.02129390511687204</v>
+        <v>-0.0142662861586008</v>
       </c>
       <c r="E33">
-        <v>0.02810221436458657</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02534152520581862</v>
+      </c>
+      <c r="F33">
+        <v>-0.01921431761230469</v>
+      </c>
+      <c r="G33">
+        <v>-0.02832190672766709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005124269127316278</v>
+        <v>0.04519868153937726</v>
       </c>
       <c r="C34">
-        <v>-0.02017859330098612</v>
+        <v>0.05502140625902459</v>
       </c>
       <c r="D34">
-        <v>0.04806751282744826</v>
+        <v>0.005475871877191047</v>
       </c>
       <c r="E34">
-        <v>0.001249203793209256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.007932634043438249</v>
+      </c>
+      <c r="F34">
+        <v>-0.02229279710209031</v>
+      </c>
+      <c r="G34">
+        <v>-0.03302040305389532</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01159320814104602</v>
+        <v>0.01149642650805719</v>
       </c>
       <c r="C36">
-        <v>-0.01844681422296507</v>
+        <v>0.007235785861759699</v>
       </c>
       <c r="D36">
-        <v>0.000233879515233227</v>
+        <v>-0.01129652742816909</v>
       </c>
       <c r="E36">
-        <v>-0.001696503138152938</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.00212636456111406</v>
+      </c>
+      <c r="F36">
+        <v>0.003063708473563278</v>
+      </c>
+      <c r="G36">
+        <v>-0.02231724769868628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006429680459509567</v>
+        <v>0.03381664228492711</v>
       </c>
       <c r="C38">
-        <v>-0.02743360352909088</v>
+        <v>0.02597329216411446</v>
       </c>
       <c r="D38">
-        <v>0.02282971412761823</v>
+        <v>0.008032145708751173</v>
       </c>
       <c r="E38">
-        <v>0.002921031907934921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.004051935765717021</v>
+      </c>
+      <c r="F38">
+        <v>0.001384036034546532</v>
+      </c>
+      <c r="G38">
+        <v>-0.0295142749252304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005949270244266499</v>
+        <v>0.03280481569262606</v>
       </c>
       <c r="C39">
-        <v>0.01269169058287182</v>
+        <v>0.0819160455282051</v>
       </c>
       <c r="D39">
-        <v>0.09648743934184117</v>
+        <v>-0.01196502976555961</v>
       </c>
       <c r="E39">
-        <v>0.02102872802757094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02115550491452789</v>
+      </c>
+      <c r="F39">
+        <v>-0.03617055162776608</v>
+      </c>
+      <c r="G39">
+        <v>-0.02413073056645864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01086479335759193</v>
+        <v>0.02113993489083157</v>
       </c>
       <c r="C40">
-        <v>-0.01768837945389798</v>
+        <v>0.03020275188499695</v>
       </c>
       <c r="D40">
-        <v>0.04047258404766031</v>
+        <v>-0.01314361662340685</v>
       </c>
       <c r="E40">
-        <v>0.01701381346888008</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02237512779447928</v>
+      </c>
+      <c r="F40">
+        <v>-0.01277264710734893</v>
+      </c>
+      <c r="G40">
+        <v>-0.02316127875400895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005008380214516612</v>
+        <v>0.01221388337737549</v>
       </c>
       <c r="C41">
-        <v>-0.01904532987388122</v>
+        <v>-0.000975506859386263</v>
       </c>
       <c r="D41">
-        <v>-0.008859293352552824</v>
+        <v>-0.003576684682542368</v>
       </c>
       <c r="E41">
-        <v>-0.003141558506416384</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003395240664458982</v>
+      </c>
+      <c r="F41">
+        <v>1.544014086750089e-05</v>
+      </c>
+      <c r="G41">
+        <v>-0.01384322126032935</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09472259509724709</v>
+        <v>0.02478146108621722</v>
       </c>
       <c r="C42">
-        <v>-0.04518104340422566</v>
+        <v>0.04924808059106287</v>
       </c>
       <c r="D42">
-        <v>0.2366660258632318</v>
+        <v>-0.1000120122399056</v>
       </c>
       <c r="E42">
-        <v>0.2894902921824296</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04215690219726427</v>
+      </c>
+      <c r="F42">
+        <v>0.08434578782919736</v>
+      </c>
+      <c r="G42">
+        <v>0.1752515540205767</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005881565350428639</v>
+        <v>0.0286426458516597</v>
       </c>
       <c r="C43">
-        <v>-0.02279627778598627</v>
+        <v>0.008235547485393511</v>
       </c>
       <c r="D43">
-        <v>-0.01341354539509581</v>
+        <v>-0.003776761777629429</v>
       </c>
       <c r="E43">
-        <v>0.0001454511208418688</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.004632030517232474</v>
+      </c>
+      <c r="F43">
+        <v>0.0015973166892945</v>
+      </c>
+      <c r="G43">
+        <v>-0.01997856714354027</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003288918545721769</v>
+        <v>0.0165746645137417</v>
       </c>
       <c r="C44">
-        <v>-0.0002405497305524415</v>
+        <v>0.04741072230821169</v>
       </c>
       <c r="D44">
-        <v>0.02772391495533346</v>
+        <v>-0.006565654735989555</v>
       </c>
       <c r="E44">
-        <v>-0.0007259224882007836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01678175255810484</v>
+      </c>
+      <c r="F44">
+        <v>-0.01641413087391479</v>
+      </c>
+      <c r="G44">
+        <v>-0.03549393852211633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01031135923418147</v>
+        <v>0.005048688205514852</v>
       </c>
       <c r="C46">
-        <v>-0.01570232257178629</v>
+        <v>0.01720194740460196</v>
       </c>
       <c r="D46">
-        <v>0.01358197457523299</v>
+        <v>-0.01159553989329788</v>
       </c>
       <c r="E46">
-        <v>0.002736627740140341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0003855466060619522</v>
+      </c>
+      <c r="F46">
+        <v>0.01508614114506455</v>
+      </c>
+      <c r="G46">
+        <v>-0.02555881398508559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.0005491038967099217</v>
+        <v>0.07454594493979685</v>
       </c>
       <c r="C47">
-        <v>-0.06325617455806205</v>
+        <v>0.06249970391225568</v>
       </c>
       <c r="D47">
-        <v>0.04197432384247961</v>
+        <v>0.005308419662169355</v>
       </c>
       <c r="E47">
-        <v>0.008974324770527255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0186731616959536</v>
+      </c>
+      <c r="F47">
+        <v>0.06280343332451274</v>
+      </c>
+      <c r="G47">
+        <v>-0.02446390081340029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002421381204304551</v>
+        <v>0.01971035995476682</v>
       </c>
       <c r="C48">
-        <v>-0.02452544217886215</v>
+        <v>0.01039740424859934</v>
       </c>
       <c r="D48">
-        <v>0.008744481620018344</v>
+        <v>-0.000903607851806232</v>
       </c>
       <c r="E48">
-        <v>0.001515086603538483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.003134872901225152</v>
+      </c>
+      <c r="F48">
+        <v>0.01494701941775571</v>
+      </c>
+      <c r="G48">
+        <v>-0.02585208710617866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001958667415023958</v>
+        <v>0.07989697426627769</v>
       </c>
       <c r="C50">
-        <v>-0.05442767979920336</v>
+        <v>0.06508608468418735</v>
       </c>
       <c r="D50">
-        <v>0.05650242874841893</v>
+        <v>0.004155600399537641</v>
       </c>
       <c r="E50">
-        <v>-0.01572996089390661</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01935108882451104</v>
+      </c>
+      <c r="F50">
+        <v>0.05632605033365686</v>
+      </c>
+      <c r="G50">
+        <v>-0.04463827732156127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006758870519595363</v>
+        <v>0.01234456362809965</v>
       </c>
       <c r="C51">
-        <v>-0.0161641149019295</v>
+        <v>0.02824543660996732</v>
       </c>
       <c r="D51">
-        <v>-0.01395565395846137</v>
+        <v>-0.008940113474267651</v>
       </c>
       <c r="E51">
-        <v>-0.0127187718206352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01177627570488669</v>
+      </c>
+      <c r="F51">
+        <v>-0.02704289514566738</v>
+      </c>
+      <c r="G51">
+        <v>-0.04796882877716942</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.003422410315696685</v>
+        <v>0.09586888691768153</v>
       </c>
       <c r="C53">
-        <v>-0.08860167340714095</v>
+        <v>0.07834727050857399</v>
       </c>
       <c r="D53">
-        <v>0.09404089827628608</v>
+        <v>0.005915156955524703</v>
       </c>
       <c r="E53">
-        <v>0.01045287635722197</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04345240474030126</v>
+      </c>
+      <c r="F53">
+        <v>0.06406269195512121</v>
+      </c>
+      <c r="G53">
+        <v>-0.02323062984095095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001828581908294436</v>
+        <v>0.03000040322258605</v>
       </c>
       <c r="C54">
-        <v>-0.03616794811371593</v>
+        <v>0.006434229041815138</v>
       </c>
       <c r="D54">
-        <v>-0.01164776291415718</v>
+        <v>0.003785409375923571</v>
       </c>
       <c r="E54">
-        <v>-0.01488082276013484</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003271571353646088</v>
+      </c>
+      <c r="F54">
+        <v>0.005829498748570687</v>
+      </c>
+      <c r="G54">
+        <v>-0.03292508852917932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001051670873304679</v>
+        <v>0.07397830478618272</v>
       </c>
       <c r="C55">
-        <v>-0.06296704212046765</v>
+        <v>0.07235731732363121</v>
       </c>
       <c r="D55">
-        <v>0.08412592253907994</v>
+        <v>0.004881215597241333</v>
       </c>
       <c r="E55">
-        <v>0.01920714232771293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03339048700057459</v>
+      </c>
+      <c r="F55">
+        <v>0.06029229708009744</v>
+      </c>
+      <c r="G55">
+        <v>-0.009905938007189296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0007894033254161423</v>
+        <v>0.1465094996923165</v>
       </c>
       <c r="C56">
-        <v>-0.1161996201135195</v>
+        <v>0.1006670614432037</v>
       </c>
       <c r="D56">
-        <v>0.1257167927609603</v>
+        <v>0.01405852159701091</v>
       </c>
       <c r="E56">
-        <v>0.02621589043564247</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04420069576565082</v>
+      </c>
+      <c r="F56">
+        <v>0.1029144520634422</v>
+      </c>
+      <c r="G56">
+        <v>-0.0003829227667946171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02269887274088814</v>
+        <v>0.01227712280169079</v>
       </c>
       <c r="C57">
-        <v>-0.01522846282628318</v>
+        <v>0.01136802365106556</v>
       </c>
       <c r="D57">
-        <v>0.04112810411189689</v>
+        <v>-0.02377767095409243</v>
       </c>
       <c r="E57">
-        <v>0.01139747253077462</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02998501976680365</v>
+      </c>
+      <c r="F57">
+        <v>-0.0116920224215947</v>
+      </c>
+      <c r="G57">
+        <v>-0.02087808427097171</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.006825647159332148</v>
+        <v>0.06921825676018116</v>
       </c>
       <c r="C58">
-        <v>-0.04710899731688904</v>
+        <v>0.06039868725171585</v>
       </c>
       <c r="D58">
-        <v>0.0544377561947866</v>
+        <v>-0.02006871063053569</v>
       </c>
       <c r="E58">
-        <v>0.1493327187985685</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9241218658469785</v>
+      </c>
+      <c r="F58">
+        <v>0.2962884776343753</v>
+      </c>
+      <c r="G58">
+        <v>-0.02848865370357469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02173456520916374</v>
+        <v>0.150699845280445</v>
       </c>
       <c r="C59">
-        <v>-0.2184441613566114</v>
+        <v>-0.2122509212912739</v>
       </c>
       <c r="D59">
-        <v>-0.1952164806360859</v>
+        <v>0.01621247898173654</v>
       </c>
       <c r="E59">
-        <v>-0.01718245228057341</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01582342943748639</v>
+      </c>
+      <c r="F59">
+        <v>-0.009800516602293448</v>
+      </c>
+      <c r="G59">
+        <v>-0.02149253868744476</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02804788337661191</v>
+        <v>0.2911555359095139</v>
       </c>
       <c r="C60">
-        <v>-0.162331258862681</v>
+        <v>0.08938823101772722</v>
       </c>
       <c r="D60">
-        <v>0.07801687884494808</v>
+        <v>-0.008844116190004452</v>
       </c>
       <c r="E60">
-        <v>0.0616516443422134</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.03864604442978884</v>
+      </c>
+      <c r="F60">
+        <v>-0.384595601120381</v>
+      </c>
+      <c r="G60">
+        <v>0.09044517626545191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002956018128808976</v>
+        <v>0.03361151628892129</v>
       </c>
       <c r="C61">
-        <v>-0.0111762215644535</v>
+        <v>0.06329315654669836</v>
       </c>
       <c r="D61">
-        <v>0.0658426331739443</v>
+        <v>-0.005276148708010461</v>
       </c>
       <c r="E61">
-        <v>0.01439127944011569</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01174484308745344</v>
+      </c>
+      <c r="F61">
+        <v>-0.01985362594213026</v>
+      </c>
+      <c r="G61">
+        <v>-0.02309466786833428</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007552494882334455</v>
+        <v>0.01504466388485206</v>
       </c>
       <c r="C63">
-        <v>-0.01279752254652716</v>
+        <v>0.02650238512788043</v>
       </c>
       <c r="D63">
-        <v>0.01319678507544155</v>
+        <v>-0.008000882206253149</v>
       </c>
       <c r="E63">
-        <v>-0.003888465089100841</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.007659196760533489</v>
+      </c>
+      <c r="F63">
+        <v>0.01332931463715348</v>
+      </c>
+      <c r="G63">
+        <v>-0.03270362534717846</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.006341449541857213</v>
+        <v>0.0489483036060598</v>
       </c>
       <c r="C64">
-        <v>-0.03223381367099315</v>
+        <v>0.0367358271943898</v>
       </c>
       <c r="D64">
-        <v>0.06386207224590573</v>
+        <v>-0.004749119256065421</v>
       </c>
       <c r="E64">
-        <v>0.01996545138961874</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.006834327636426664</v>
+      </c>
+      <c r="F64">
+        <v>-0.005414550409367946</v>
+      </c>
+      <c r="G64">
+        <v>-0.02018486905152532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01791236844503917</v>
+        <v>0.08132418833672006</v>
       </c>
       <c r="C65">
-        <v>-0.03532282593901635</v>
+        <v>0.06556264495024679</v>
       </c>
       <c r="D65">
-        <v>0.09374200556782798</v>
+        <v>-0.01540118752139922</v>
       </c>
       <c r="E65">
-        <v>0.01434459038914151</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.008728836828700934</v>
+      </c>
+      <c r="F65">
+        <v>-0.0391128920339423</v>
+      </c>
+      <c r="G65">
+        <v>-0.009953276984636633</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005598089901338935</v>
+        <v>0.05438186739040928</v>
       </c>
       <c r="C66">
-        <v>0.001740424412334613</v>
+        <v>0.1147592880284618</v>
       </c>
       <c r="D66">
-        <v>0.1163592746029469</v>
+        <v>-0.01144796530861784</v>
       </c>
       <c r="E66">
-        <v>0.04151461525951307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02297286455222073</v>
+      </c>
+      <c r="F66">
+        <v>-0.04366116776879356</v>
+      </c>
+      <c r="G66">
+        <v>-0.01415189897916829</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001598827785944653</v>
+        <v>0.0573479713045983</v>
       </c>
       <c r="C67">
-        <v>-0.04604214865085517</v>
+        <v>0.03019244295361593</v>
       </c>
       <c r="D67">
-        <v>0.02382817186447701</v>
+        <v>0.006479974223428673</v>
       </c>
       <c r="E67">
-        <v>0.005547467137694564</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00265989285854855</v>
+      </c>
+      <c r="F67">
+        <v>0.002848584124539613</v>
+      </c>
+      <c r="G67">
+        <v>-0.02804572982203966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03816536533410866</v>
+        <v>0.1346113544059894</v>
       </c>
       <c r="C68">
-        <v>-0.182237704149866</v>
+        <v>-0.272713215789232</v>
       </c>
       <c r="D68">
-        <v>-0.1874690443350843</v>
+        <v>-0.001392270988842646</v>
       </c>
       <c r="E68">
-        <v>-0.0198680997284661</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.0171767748895622</v>
+      </c>
+      <c r="F68">
+        <v>0.01716966993867007</v>
+      </c>
+      <c r="G68">
+        <v>-0.02073417518241152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003313948904547941</v>
+        <v>0.07897444445309208</v>
       </c>
       <c r="C69">
-        <v>-0.05095175083133412</v>
+        <v>0.06459141754201535</v>
       </c>
       <c r="D69">
-        <v>0.05062891454286698</v>
+        <v>0.00932857845223427</v>
       </c>
       <c r="E69">
-        <v>0.006098575011253414</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03509603218814303</v>
+      </c>
+      <c r="F69">
+        <v>0.04299217030722741</v>
+      </c>
+      <c r="G69">
+        <v>-0.02517061695497341</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02682940976493626</v>
+        <v>0.1292039899056063</v>
       </c>
       <c r="C71">
-        <v>-0.1648003755113933</v>
+        <v>-0.2286640567086164</v>
       </c>
       <c r="D71">
-        <v>-0.1637999339026686</v>
+        <v>0.007216737257104486</v>
       </c>
       <c r="E71">
-        <v>-0.02710553041887255</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02583273965150576</v>
+      </c>
+      <c r="F71">
+        <v>0.0196486572710572</v>
+      </c>
+      <c r="G71">
+        <v>-0.0340184848626645</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00261135091116581</v>
+        <v>0.08360012773467186</v>
       </c>
       <c r="C72">
-        <v>-0.06632013384243675</v>
+        <v>0.07506265144847149</v>
       </c>
       <c r="D72">
-        <v>0.1335146381329965</v>
+        <v>0.008901738484582289</v>
       </c>
       <c r="E72">
-        <v>0.05025541580702607</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.009835494442176634</v>
+      </c>
+      <c r="F72">
+        <v>-0.04227530407369271</v>
+      </c>
+      <c r="G72">
+        <v>-0.0009425283833686252</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04159555415980581</v>
+        <v>0.4008765366597762</v>
       </c>
       <c r="C73">
-        <v>-0.1987639976893701</v>
+        <v>0.1040452533242621</v>
       </c>
       <c r="D73">
-        <v>0.1372247127827545</v>
+        <v>-0.01354132904657523</v>
       </c>
       <c r="E73">
-        <v>0.1350714354254925</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1059080345496334</v>
+      </c>
+      <c r="F73">
+        <v>-0.5385218138259511</v>
+      </c>
+      <c r="G73">
+        <v>0.146138183519274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0007205794835892658</v>
+        <v>0.1177516531394042</v>
       </c>
       <c r="C74">
-        <v>-0.1034361688256693</v>
+        <v>0.1169821494485695</v>
       </c>
       <c r="D74">
-        <v>0.1217600351231511</v>
+        <v>0.01041045521251497</v>
       </c>
       <c r="E74">
-        <v>0.0336113057203386</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04024044327410872</v>
+      </c>
+      <c r="F74">
+        <v>0.07098327675204882</v>
+      </c>
+      <c r="G74">
+        <v>-0.02261997007370321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-9.568247588334367e-05</v>
+        <v>0.2628656728376026</v>
       </c>
       <c r="C75">
-        <v>-0.2358385591458118</v>
+        <v>0.1452903064733236</v>
       </c>
       <c r="D75">
-        <v>0.207796684839956</v>
+        <v>0.03218418388705062</v>
       </c>
       <c r="E75">
-        <v>0.06436974364937793</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08476168945553807</v>
+      </c>
+      <c r="F75">
+        <v>0.2151599974500516</v>
+      </c>
+      <c r="G75">
+        <v>0.03462531982492077</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.005166372284689124</v>
+        <v>0.1374754572621874</v>
       </c>
       <c r="C76">
-        <v>-0.1812947448147863</v>
+        <v>0.1208713507684468</v>
       </c>
       <c r="D76">
-        <v>0.1920028202730467</v>
+        <v>0.02215581139835592</v>
       </c>
       <c r="E76">
-        <v>0.02933295400539663</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07619220826482542</v>
+      </c>
+      <c r="F76">
+        <v>0.1293840933584417</v>
+      </c>
+      <c r="G76">
+        <v>-0.01284020616568242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01262841865640743</v>
+        <v>0.06326861767548123</v>
       </c>
       <c r="C77">
-        <v>-0.01986811389156167</v>
+        <v>0.06149484647382976</v>
       </c>
       <c r="D77">
-        <v>0.06201684291838927</v>
+        <v>-0.01259267652699938</v>
       </c>
       <c r="E77">
-        <v>0.01374335715712636</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.046789983641321</v>
+      </c>
+      <c r="F77">
+        <v>-0.006675557862925927</v>
+      </c>
+      <c r="G77">
+        <v>-0.05174874562731351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004943364423824915</v>
+        <v>0.0417278061734414</v>
       </c>
       <c r="C78">
-        <v>-0.02144420650675257</v>
+        <v>0.05008345873974207</v>
       </c>
       <c r="D78">
-        <v>0.06189103647414697</v>
+        <v>-0.005555363458491414</v>
       </c>
       <c r="E78">
-        <v>0.01335822253791959</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02425541447629075</v>
+      </c>
+      <c r="F78">
+        <v>-0.03467061398291753</v>
+      </c>
+      <c r="G78">
+        <v>-0.03512872507093128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01507222983431704</v>
+        <v>0.06207169037784434</v>
       </c>
       <c r="C80">
-        <v>-0.1623660923103522</v>
+        <v>0.06742355203670354</v>
       </c>
       <c r="D80">
-        <v>0.2851774870157463</v>
+        <v>-0.01239502296163315</v>
       </c>
       <c r="E80">
-        <v>-0.893247863110329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04748226701193036</v>
+      </c>
+      <c r="F80">
+        <v>-0.06880596742032187</v>
+      </c>
+      <c r="G80">
+        <v>-0.9174953029120871</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.0007217022475235406</v>
+        <v>0.1451113983619017</v>
       </c>
       <c r="C81">
-        <v>-0.1502206528999559</v>
+        <v>0.09190977790992166</v>
       </c>
       <c r="D81">
-        <v>0.1370313321481687</v>
+        <v>0.01626042447475662</v>
       </c>
       <c r="E81">
-        <v>0.03206399100696553</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05019068667075016</v>
+      </c>
+      <c r="F81">
+        <v>0.132722048131083</v>
+      </c>
+      <c r="G81">
+        <v>-0.01633347293496402</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05361703466096635</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.0363098710573224</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.003006900435900811</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01829189261466635</v>
+      </c>
+      <c r="F82">
+        <v>0.004854444080264871</v>
+      </c>
+      <c r="G82">
+        <v>0.007562621252131925</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006509050569601276</v>
+        <v>0.0288398221519252</v>
       </c>
       <c r="C83">
-        <v>-0.02896679544935825</v>
+        <v>0.02070568775594564</v>
       </c>
       <c r="D83">
-        <v>0.02296136381351629</v>
+        <v>-0.005179941268945253</v>
       </c>
       <c r="E83">
-        <v>0.009736330448040797</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02738181053789058</v>
+      </c>
+      <c r="F83">
+        <v>-0.01422606995895383</v>
+      </c>
+      <c r="G83">
+        <v>-0.0225085856066133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.008519919582714437</v>
+        <v>0.2378752658202005</v>
       </c>
       <c r="C85">
-        <v>-0.1884782360059211</v>
+        <v>0.1465059854577491</v>
       </c>
       <c r="D85">
-        <v>0.2186515915635908</v>
+        <v>0.02104833981911501</v>
       </c>
       <c r="E85">
-        <v>0.07522290721725407</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1337112440030546</v>
+      </c>
+      <c r="F85">
+        <v>0.190629433750692</v>
+      </c>
+      <c r="G85">
+        <v>0.06079693698762149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005244931578450506</v>
+        <v>0.01125908588866954</v>
       </c>
       <c r="C86">
-        <v>-0.009351320966295292</v>
+        <v>0.02147961332067308</v>
       </c>
       <c r="D86">
-        <v>0.004866125589657553</v>
+        <v>-0.009582333076236712</v>
       </c>
       <c r="E86">
-        <v>0.01951043418071227</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03861088166369982</v>
+      </c>
+      <c r="F86">
+        <v>-0.01197015129627789</v>
+      </c>
+      <c r="G86">
+        <v>-0.04797598018201699</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006271897884777377</v>
+        <v>0.01365859998970434</v>
       </c>
       <c r="C87">
-        <v>-0.004601323906819455</v>
+        <v>0.02808339153200332</v>
       </c>
       <c r="D87">
-        <v>0.03401176939843802</v>
+        <v>-0.0119515476306082</v>
       </c>
       <c r="E87">
-        <v>0.008290861115378826</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08411576573109812</v>
+      </c>
+      <c r="F87">
+        <v>-0.04358181124115184</v>
+      </c>
+      <c r="G87">
+        <v>-0.04319244403219513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02579252963182659</v>
+        <v>0.08869554301378803</v>
       </c>
       <c r="C88">
-        <v>-0.04494992423386544</v>
+        <v>0.06149353745520597</v>
       </c>
       <c r="D88">
-        <v>0.01961274401817529</v>
+        <v>-0.02143687729626093</v>
       </c>
       <c r="E88">
-        <v>0.005662246872532511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01738103231352395</v>
+      </c>
+      <c r="F88">
+        <v>0.01709352463625727</v>
+      </c>
+      <c r="G88">
+        <v>-0.02409626859352396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05098574957865959</v>
+        <v>0.2180943342605202</v>
       </c>
       <c r="C89">
-        <v>-0.3138065962646159</v>
+        <v>-0.3693737076785516</v>
       </c>
       <c r="D89">
-        <v>-0.2979741508781775</v>
+        <v>0.008341585821595719</v>
       </c>
       <c r="E89">
-        <v>-0.01880361673472785</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01801527928921061</v>
+      </c>
+      <c r="F89">
+        <v>0.03319980564207626</v>
+      </c>
+      <c r="G89">
+        <v>-0.03312659561484017</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03794908112851559</v>
+        <v>0.1880561318352782</v>
       </c>
       <c r="C90">
-        <v>-0.2312705473106525</v>
+        <v>-0.3373206031712862</v>
       </c>
       <c r="D90">
-        <v>-0.2661077790394306</v>
+        <v>0.01224017796468513</v>
       </c>
       <c r="E90">
-        <v>-0.01040451279587084</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.005347066250457081</v>
+      </c>
+      <c r="F90">
+        <v>0.04443835136992415</v>
+      </c>
+      <c r="G90">
+        <v>0.003932189149319246</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.0007005377420755517</v>
+        <v>0.2092705363854607</v>
       </c>
       <c r="C91">
-        <v>-0.2086209365412835</v>
+        <v>0.1351207978109474</v>
       </c>
       <c r="D91">
-        <v>0.2079615741645961</v>
+        <v>0.02518261562444935</v>
       </c>
       <c r="E91">
-        <v>0.05574743048857319</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09718850892705662</v>
+      </c>
+      <c r="F91">
+        <v>0.183514115039124</v>
+      </c>
+      <c r="G91">
+        <v>-0.001894874148806324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.005305774831918635</v>
+        <v>0.2076349080200013</v>
       </c>
       <c r="C92">
-        <v>-0.3529015478340368</v>
+        <v>-0.2683032986848446</v>
       </c>
       <c r="D92">
-        <v>-0.1706747531269415</v>
+        <v>0.05352331000088838</v>
       </c>
       <c r="E92">
-        <v>0.001119315432500844</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.01079513439607308</v>
+      </c>
+      <c r="F92">
+        <v>0.1263543670024115</v>
+      </c>
+      <c r="G92">
+        <v>-0.06712540977270241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03645514410294053</v>
+        <v>0.2144647085149052</v>
       </c>
       <c r="C93">
-        <v>-0.2810492505930788</v>
+        <v>-0.3341598160707269</v>
       </c>
       <c r="D93">
-        <v>-0.2707966402122325</v>
+        <v>0.01891934969835607</v>
       </c>
       <c r="E93">
-        <v>0.01104478737494824</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.003648701609937461</v>
+      </c>
+      <c r="F93">
+        <v>0.0291680633083045</v>
+      </c>
+      <c r="G93">
+        <v>0.002542164400426712</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01941698658394529</v>
+        <v>0.2824351040326636</v>
       </c>
       <c r="C94">
-        <v>-0.2466768536884518</v>
+        <v>0.159383517916183</v>
       </c>
       <c r="D94">
-        <v>0.1923747254608983</v>
+        <v>0.0149377942006092</v>
       </c>
       <c r="E94">
-        <v>0.1063118485304558</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1420406065612965</v>
+      </c>
+      <c r="F94">
+        <v>0.3806513619354223</v>
+      </c>
+      <c r="G94">
+        <v>0.1199362922266314</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.006692341210003581</v>
+        <v>0.08352896962801869</v>
       </c>
       <c r="C95">
-        <v>-0.04639135755679472</v>
+        <v>0.07680982446347617</v>
       </c>
       <c r="D95">
-        <v>0.05794634326554685</v>
+        <v>0.006925395392249708</v>
       </c>
       <c r="E95">
-        <v>0.1132852523133285</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09577095634044309</v>
+      </c>
+      <c r="F95">
+        <v>-0.1511689584534581</v>
+      </c>
+      <c r="G95">
+        <v>0.04062378643049458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.004240624642616605</v>
+        <v>0.2083043612189558</v>
       </c>
       <c r="C98">
-        <v>-0.1647156509640879</v>
+        <v>0.04685936971342909</v>
       </c>
       <c r="D98">
-        <v>0.1023295947046611</v>
+        <v>0.01602637287310472</v>
       </c>
       <c r="E98">
-        <v>0.0821264044107442</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.0861354979925312</v>
+      </c>
+      <c r="F98">
+        <v>-0.2432995732005696</v>
+      </c>
+      <c r="G98">
+        <v>0.03946364899931711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007039978724311833</v>
+        <v>0.0134301432383042</v>
       </c>
       <c r="C101">
-        <v>-0.01921476387599828</v>
+        <v>0.02069311436245984</v>
       </c>
       <c r="D101">
-        <v>0.0116374791804235</v>
+        <v>-0.006938732395020579</v>
       </c>
       <c r="E101">
-        <v>-0.0057807314356835</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.006503287877354157</v>
+      </c>
+      <c r="F101">
+        <v>0.01383244166241194</v>
+      </c>
+      <c r="G101">
+        <v>-0.02800682423563668</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01367338512345662</v>
+        <v>0.1254364937019194</v>
       </c>
       <c r="C102">
-        <v>-0.1209584652871791</v>
+        <v>0.08119135374180778</v>
       </c>
       <c r="D102">
-        <v>0.1083408305170552</v>
+        <v>3.858937032093806e-05</v>
       </c>
       <c r="E102">
-        <v>0.03247192179223143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04222344180828255</v>
+      </c>
+      <c r="F102">
+        <v>0.06115257277588804</v>
+      </c>
+      <c r="G102">
+        <v>0.006325497951615164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.002061700848347005</v>
+        <v>0.004265827752548797</v>
       </c>
       <c r="C103">
-        <v>-0.01729353063361453</v>
+        <v>0.005538678309194641</v>
       </c>
       <c r="D103">
-        <v>0.02704141513669139</v>
+        <v>-0.0006950610007841563</v>
       </c>
       <c r="E103">
-        <v>-0.01049023512895492</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>5.439198831113005e-05</v>
+      </c>
+      <c r="F103">
+        <v>0.008525475010876516</v>
+      </c>
+      <c r="G103">
+        <v>-0.01848358828068273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.985839648776232</v>
+        <v>0.03775542471105917</v>
       </c>
       <c r="C104">
-        <v>0.09635124122047696</v>
+        <v>-0.04463317206219317</v>
       </c>
       <c r="D104">
-        <v>0.001583159363325702</v>
+        <v>-0.9862381193796632</v>
       </c>
       <c r="E104">
-        <v>-0.02426980601894611</v>
+        <v>-0.0471849568567048</v>
+      </c>
+      <c r="F104">
+        <v>0.03753524813270962</v>
+      </c>
+      <c r="G104">
+        <v>0.004487820705207536</v>
       </c>
     </row>
   </sheetData>
